--- a/classfiers/chain/svm/nearmiss/chain-svm-default-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-default-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7777777777777779</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.7944444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/nearmiss/chain-svm-default-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>0.650887573964497</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.9935897435897436</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7777777777777779</v>
+        <v>0.8269230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.6766917293233082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6448717948717948</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46</v>
+        <v>0.6409197324414716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7944444444444445</v>
+        <v>0.8776134122287969</v>
       </c>
     </row>
   </sheetData>
